--- a/API/AttendanceSystem/AttendanceSystem/Utility/sample_tests.xlsx
+++ b/API/AttendanceSystem/AttendanceSystem/Utility/sample_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vamsi\Documents\1MTSU\SEM 2\Web Technologies\Final Project\Project\CSCI_5410_Final_Project\API\AttendanceSystem\AttendanceSystem\Utility\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8606FAD-8DF8-421C-BD0B-70A9F6357431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A8C32A-64E9-457A-B10B-1B6AD0FA847A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DFE4E734-8915-418B-BC8E-766ABA309983}"/>
   </bookViews>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E9D2A8-4440-4B64-81A8-EE1387370422}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,6 +583,9 @@
       <c r="A18" s="1">
         <v>50017</v>
       </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -746,20 +749,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="c876f8d9-6081-43cc-b7ab-bcea8e1e4444" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="c876f8d9-6081-43cc-b7ab-bcea8e1e4444" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,6 +784,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB3DFC31-758B-4A90-A667-8B905C40D830}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{017FEDCE-B69C-4403-853C-91849AB80AE5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -794,12 +805,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB3DFC31-758B-4A90-A667-8B905C40D830}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>